--- a/public/Debitor Import Sample.xlsx
+++ b/public/Debitor Import Sample.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>clientname</t>
-  </si>
-  <si>
-    <t>orgname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>email</t>
   </si>
@@ -42,9 +36,6 @@
     <t>panno</t>
   </si>
   <si>
-    <t>district</t>
-  </si>
-  <si>
     <t>additionalinfo</t>
   </si>
   <si>
@@ -66,9 +57,6 @@
     <t>Santosh</t>
   </si>
   <si>
-    <t>STEPL</t>
-  </si>
-  <si>
     <t>santosh@gmail.com</t>
   </si>
   <si>
@@ -81,9 +69,6 @@
     <t>Bhubaneswar</t>
   </si>
   <si>
-    <t>Khordha</t>
-  </si>
-  <si>
     <t>Odisha</t>
   </si>
   <si>
@@ -97,6 +82,9 @@
   </si>
   <si>
     <t>tanno</t>
+  </si>
+  <si>
+    <t>department</t>
   </si>
 </sst>
 </file>
@@ -450,7 +438,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,63 +455,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>9439886844</v>
       </c>
       <c r="C2">
         <v>9439886844</v>
@@ -531,38 +519,38 @@
       <c r="D2">
         <v>9439886844</v>
       </c>
-      <c r="E2">
-        <v>9439886844</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>123145</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>123145</v>
-      </c>
-      <c r="H2">
-        <v>123456</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
+      <c r="N2">
+        <v>111</v>
+      </c>
+      <c r="O2">
+        <v>222</v>
       </c>
       <c r="P2">
         <v>111</v>
@@ -573,7 +561,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
